--- a/medicine/Psychotrope/Las_Dos_Antiguas/Las_Dos_Antiguas.xlsx
+++ b/medicine/Psychotrope/Las_Dos_Antiguas/Las_Dos_Antiguas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Las Dos Antiguas est une cave artisanale de vin rouge à Navas de Oro dans la région de Castille-et-León en Espagne. La société produit du vin avec l'appellation Castille-et-Léon dont le vignoble est situé à la Ribera del Duero. Les grappes de raisin issues du cépage Tempranillo sont sélectionnées et récoltées manuellement[1]. La production est numérotée et limitée à environ 6 000 bouteilles par an[2].
+Las Dos Antiguas est une cave artisanale de vin rouge à Navas de Oro dans la région de Castille-et-León en Espagne. La société produit du vin avec l'appellation Castille-et-Léon dont le vignoble est situé à la Ribera del Duero. Les grappes de raisin issues du cépage Tempranillo sont sélectionnées et récoltées manuellement. La production est numérotée et limitée à environ 6 000 bouteilles par an.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2009, Ibáñez Guerra Rodrigo et Henar Pinilla, amateurs de vin, ont décidé par passion de faire leurs propres vins.
 Les deux années suivantes, ils ont pu élaboré du vin à leur manière dans le garage. Le résultat a tellement plu à la famille et aux proches que cela a été un tournant pour les deux passionnés du vin.
-En 2012, les deux fondateurs débutent leurs carrières professionnelles sous le nom de Las Dos Antiguas[3].
+En 2012, les deux fondateurs débutent leurs carrières professionnelles sous le nom de Las Dos Antiguas.
 Les deux associés s'installent dans une petite cave à Navas de Oro, à 30 minutes de la ville de Ségovie. Ils se spécialisent alors dans la production de vins rouges à long vieillissement, ou vin de garde.
 Las Dos Antiguas est à ce moment l'une des rares caves à vins artisanale à élaborer et vendre du vin rouge dans la zone. Traditionnellement, cette zone produit du vin blanc avec notamment la variété verdejo et avec l'appellation Rueda.
 </t>
@@ -547,10 +561,12 @@
           <t>Récompenses internationales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de l'International Wine Awards Las dos Antiguas Selección 2014, a obtenu une Grande Médaille d'Or un prix réservé aux vins avec des scores entre 95 et 100 points. Cette récompense a été seulement attribuée à 36 des 2 579 vins présentés[3].
-Puis en 2021, dans le cadre de la dégustation printemps du concours Mundus Vini, Las dos Antiguas Selección 2015 remporte un Grand Or[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de l'International Wine Awards Las dos Antiguas Selección 2014, a obtenu une Grande Médaille d'Or un prix réservé aux vins avec des scores entre 95 et 100 points. Cette récompense a été seulement attribuée à 36 des 2 579 vins présentés.
+Puis en 2021, dans le cadre de la dégustation printemps du concours Mundus Vini, Las dos Antiguas Selección 2015 remporte un Grand Or.
 </t>
         </is>
       </c>
